--- a/biology/Biologie cellulaire et moléculaire/Histiocyte/Histiocyte.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Histiocyte/Histiocyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histiocyte, aussi appelé spongiocyte, est un macrophage du tissu conjonctif. C'est une cellule de taille importante faisant partie du système immunitaire et qui dérive de la moelle osseuse. Elle peut se déplacer, avec des mouvements amiboïdes.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au départ, les monocytes immatures passent la barrière moelle/sang. 
 Après un court séjour dans le sang, ils traversent la barrière endothéliale pour migrer dans un organe. 
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cellule histiocytaire est mobile, élastique et capable de phagocytose (car elle fait partie de la famille des phagocytes mono-nucléés).
 Une fois qu'elle a phagocyté, elle devient un macrophage. Si cette dernière est incapable d'accomplir sa fonction, il y a ce qu'on appelle les cellules épithelioïdes, qui sont un autre type de cellules histiocytaires, qui seront alors chargées de dégrader les corps étrangers.
